--- a/datos/lista numeros.xlsx
+++ b/datos/lista numeros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4F5C7A-4E50-41F3-A114-B425A718F4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{EB4F5C7A-4E50-41F3-A114-B425A718F4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56B5C27-72ED-4433-93C9-DDD86942A295}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{89CFB379-E681-4DDB-A372-18C4CA2DE17D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>cero</t>
   </si>
@@ -50,69 +50,6 @@
     <t>tres</t>
   </si>
   <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>nine</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>eleven</t>
-  </si>
-  <si>
-    <t>twelve</t>
-  </si>
-  <si>
-    <t>thirteen</t>
-  </si>
-  <si>
-    <t>fourteen</t>
-  </si>
-  <si>
-    <t>fifteen</t>
-  </si>
-  <si>
-    <t>sixteen</t>
-  </si>
-  <si>
-    <t>seventeen</t>
-  </si>
-  <si>
-    <t>eighteen</t>
-  </si>
-  <si>
-    <t>ninenteen</t>
-  </si>
-  <si>
-    <t>tewenty</t>
-  </si>
-  <si>
     <t>cuatro</t>
   </si>
   <si>
@@ -224,13 +161,94 @@
     <t>iskay chunka</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Quechua</t>
+    <t>veintiuno</t>
+  </si>
+  <si>
+    <t>veinticinco</t>
+  </si>
+  <si>
+    <t>veintiséis</t>
+  </si>
+  <si>
+    <t>treinta</t>
+  </si>
+  <si>
+    <t>cuarenta</t>
+  </si>
+  <si>
+    <t>cincuenta</t>
+  </si>
+  <si>
+    <t>sesenta y dos</t>
+  </si>
+  <si>
+    <t>noventa y nueve</t>
+  </si>
+  <si>
+    <t>cien</t>
+  </si>
+  <si>
+    <t>ciento uno</t>
+  </si>
+  <si>
+    <t>ciento diez</t>
+  </si>
+  <si>
+    <t>ciento doce</t>
+  </si>
+  <si>
+    <t>doscientos</t>
+  </si>
+  <si>
+    <t>trescientos</t>
+  </si>
+  <si>
+    <t>cuatrocientos</t>
+  </si>
+  <si>
+    <t>iskay chunka hukniyoq</t>
+  </si>
+  <si>
+    <t>iskay chunka pisqayop</t>
+  </si>
+  <si>
+    <t>iskay chunka soqtayoq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinsa chunka </t>
+  </si>
+  <si>
+    <t>tawa chunka</t>
+  </si>
+  <si>
+    <t>pisqa chunka</t>
+  </si>
+  <si>
+    <t>soqta chunka iskayniyop</t>
+  </si>
+  <si>
+    <t>esqon chunka esqoniyop</t>
+  </si>
+  <si>
+    <t>pachak</t>
+  </si>
+  <si>
+    <t>pachak hukniyop</t>
+  </si>
+  <si>
+    <t>pachak chunkayop</t>
+  </si>
+  <si>
+    <t>pachak chunka iskayniyop</t>
+  </si>
+  <si>
+    <t>iskay pachak</t>
+  </si>
+  <si>
+    <t>kinsa pachak</t>
+  </si>
+  <si>
+    <t>tawa pachak</t>
   </si>
 </sst>
 </file>
@@ -266,8 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,254 +601,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E8A327-F342-46AD-83C9-7E4747FF6910}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
